--- a/src/test/resources/ComTestdata1.xlsx
+++ b/src/test/resources/ComTestdata1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse IDE1\ProvidenceSMS_StudentManagementSystem_Selenium_Framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\repository\ProvidenceSMS_StudentManagementSystem_Selenium_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E6D560-F360-4781-919A-E27C6FC26EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F7881-AF02-4C1D-B73F-7CF05B855DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F97DD7BA-00F7-4555-BB1B-147A77DD0BC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F97DD7BA-00F7-4555-BB1B-147A77DD0BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet1" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18237F0-20A6-4B24-AB93-761127984AD6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9455B3-10C8-4CD7-B66C-B5931A054041}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
